--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_FOU_NacuboGLAccountClassProfile_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_FOU_NacuboGLAccountClassProfile_Regression_001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738CCF9F-A137-4DE8-9E29-DFE816260B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0C1F93-EBC3-4DA2-9AD8-AE47A61C66FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="90" windowWidth="18780" windowHeight="9910" xr2:uid="{ED1DE3A2-7D10-4EDF-83CE-8D5FA019BAB9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ED1DE3A2-7D10-4EDF-83CE-8D5FA019BAB9}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>Validate back to list</t>
   </si>
   <si>
-    <t>TC_SM_FOU_ListView_D2(Agency)</t>
-  </si>
-  <si>
     <t>Edit Profile</t>
   </si>
   <si>
@@ -102,18 +99,12 @@
     <t>Delete Profile</t>
   </si>
   <si>
-    <t>TC_SM_FOU_PcaGroupProfile_EditProfile</t>
-  </si>
-  <si>
     <t>UserAgencySelection</t>
   </si>
   <si>
     <t>Select User</t>
   </si>
   <si>
-    <t>TC_SM_FOU_PcaGroupProfile_AddNewProfile</t>
-  </si>
-  <si>
     <t>Login_Logout</t>
   </si>
   <si>
@@ -142,6 +133,15 @@
   </si>
   <si>
     <t>Verify Last Proc date</t>
+  </si>
+  <si>
+    <t>TC_SM_FOU_ListView_D1</t>
+  </si>
+  <si>
+    <t>TC_SM_FOU_NacuboGLAccountClassProfile_AddNewProfile</t>
+  </si>
+  <si>
+    <t>TC_SM_FOU_NacuboGLAccountClassProfile_EditProfile</t>
   </si>
 </sst>
 </file>
@@ -540,21 +540,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05B2E18-436A-488F-94B9-FF593DC035ED}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" customWidth="1"/>
     <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -594,15 +594,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -614,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -634,7 +634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -654,12 +654,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
@@ -671,15 +671,15 @@
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -714,15 +714,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -734,15 +734,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -754,15 +754,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
@@ -774,15 +774,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
@@ -794,15 +794,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
@@ -814,15 +814,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -854,16 +854,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
@@ -874,15 +874,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>
